--- a/revised_reproduction_package_for_gaikwad_nellis(2021)/dataverse_files/exhibit-registration-worldwide.xlsx
+++ b/revised_reproduction_package_for_gaikwad_nellis(2021)/dataverse_files/exhibit-registration-worldwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garet\Dropbox\Delhi_migrants_RCT\Replication\for-release\_exhibits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamyayadav/Documents/GitHub/gaikwad_nellis_reproduction/revised_reproduction_package_for_gaikwad_nellis(2021)/dataverse_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAF53DD-E249-4235-8022-D10806101AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA83343-C35C-FA45-A8B1-5675F5AB4D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5310" windowWidth="29040" windowHeight="15840" xr2:uid="{31725F55-5007-4EE2-98E0-28ABBB574EA6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{31725F55-5007-4EE2-98E0-28ABBB574EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>No requirement to de-register. Re-registration in new constituency needed to update status.</t>
-  </si>
-  <si>
-    <t>Voter-initiated. Eligible voters must present themselves to the registration officer with their original identification documents at the designated registration center and complete the registration form (Form A). Registered voters are issued a registration acknowledgement slip bearing the voter′s details. The National ID card is the only document required to prove identity.</t>
   </si>
   <si>
     <t xml:space="preserve">Voter-initiated. To register, eligible voters must present their national identity card and have their fingerprints taken by the National Civil Registry. The process is often described as registering the ID card with the Electoral Registrar. </t>
@@ -268,6 +265,9 @@
       </rPr>
       <t>Successful registrants are issued a biometric voter card at the time of registration.</t>
     </r>
+  </si>
+  <si>
+    <t>Voter-initiated. Eligible voters must present themselves to the registration officer with their original identification documents at the designated registration center and complete the registration form (Form A). Registered voters are issued a registration acknowledgement slip bearing the voter's details. The National ID card is the only document required to prove identity.</t>
   </si>
 </sst>
 </file>
@@ -670,19 +670,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.06640625" customWidth="1"/>
-    <col min="5" max="5" width="30.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="114" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="288.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="288.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -777,13 +777,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="322.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="322.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -803,7 +803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="159.69999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -863,7 +863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -877,13 +877,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -917,13 +917,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="128.25" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -937,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,13 +977,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="114" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1000,10 +1000,10 @@
         <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1017,13 +1017,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1037,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1057,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:6" ht="176" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1077,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
